--- a/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
+++ b/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatan\Desktop\Tadzio's Proyects\RAS\Micromouse\Micromouse-Kicad\Montaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9530C1A7-EC6E-4CA4-9DC0-6497FD86B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AABB99-5253-4934-BA5D-3B47766B9D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1296" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micromouse-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -355,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,10 +1202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
+++ b/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatan\Desktop\Tadzio's Proyects\RAS\Micromouse\Micromouse-Kicad\Montaje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Sexto Semestre\Micromouse\Micromouse-Kicad\Montaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9530C1A7-EC6E-4CA4-9DC0-6497FD86B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1659D71-8896-4848-B439-66836B7D9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1296" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="1704" yWindow="2940" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micromouse-BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>Designator</t>
   </si>
@@ -350,12 +350,24 @@
   </si>
   <si>
     <t>C1857</t>
+  </si>
+  <si>
+    <t>TO-92-3</t>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3,Q4</t>
+  </si>
+  <si>
+    <t>BS170</t>
+  </si>
+  <si>
+    <t>C111691</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,48 +849,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1189,12 +1201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1672,7 +1686,22 @@
         <v>109</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
+++ b/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Sexto Semestre\Micromouse\Micromouse-Kicad\Montaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1659D71-8896-4848-B439-66836B7D9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC8F0F-9FA0-4AF4-9585-985726DE89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="2940" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8616" yWindow="2316" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micromouse-BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>Designator</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>C111691</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>AMASS_XT60-M</t>
+  </si>
+  <si>
+    <t>XT60</t>
+  </si>
+  <si>
+    <t>C98733</t>
   </si>
 </sst>
 </file>
@@ -1202,13 +1214,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1698,6 +1713,20 @@
       </c>
       <c r="D35" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
+++ b/Micromouse-Kicad/Montaje/Micromouse-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Sexto Semestre\Micromouse\Micromouse-Kicad\Montaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC8F0F-9FA0-4AF4-9585-985726DE89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D9703-E95E-450E-A37D-05DA83A60868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8616" yWindow="2316" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11556" yWindow="2088" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micromouse-BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>Designator</t>
   </si>
@@ -374,6 +374,21 @@
   </si>
   <si>
     <t>C98733</t>
+  </si>
+  <si>
+    <t>C18830</t>
+  </si>
+  <si>
+    <t>J7,J6</t>
+  </si>
+  <si>
+    <t>JST-SH-6</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>C160392</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,7 +1461,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,6 +1742,20 @@
       </c>
       <c r="D36" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
